--- a/Final/TemperaturasPromAnualPorEstado.xlsx
+++ b/Final/TemperaturasPromAnualPorEstado.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alec_\Documents\GitHub\ProduccionMango\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9E20DFB-2F89-4CF6-B30C-0DDDDC404AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7532F74A-4A55-41D0-9A24-EE6B7415404D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="2865" windowWidth="22155" windowHeight="11925"/>
+    <workbookView xWindow="5595" yWindow="2445" windowWidth="22155" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TemperaturasPromAnualPorEstado" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -961,494 +961,434 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2018</v>
-      </c>
-      <c r="C1">
-        <v>2019</v>
-      </c>
-      <c r="D1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2">
         <v>18.19166667</v>
       </c>
       <c r="C2">
+        <v>20.958333329999999</v>
+      </c>
+      <c r="D2">
+        <v>24.25</v>
+      </c>
+      <c r="E2">
+        <v>27.141666669999999</v>
+      </c>
+      <c r="F2">
+        <v>21.824999999999999</v>
+      </c>
+      <c r="G2">
+        <v>27.19166667</v>
+      </c>
+      <c r="H2">
+        <v>25.141666669999999</v>
+      </c>
+      <c r="I2">
+        <v>19.19166667</v>
+      </c>
+      <c r="J2">
+        <v>17.8</v>
+      </c>
+      <c r="K2">
+        <v>18.958333329999999</v>
+      </c>
+      <c r="L2">
+        <v>19.083333329999999</v>
+      </c>
+      <c r="M2">
+        <v>25.19166667</v>
+      </c>
+      <c r="N2">
+        <v>18.666666670000001</v>
+      </c>
+      <c r="O2">
+        <v>21.158333330000001</v>
+      </c>
+      <c r="P2">
+        <v>14.95833333</v>
+      </c>
+      <c r="Q2">
+        <v>20.841666669999999</v>
+      </c>
+      <c r="R2">
+        <v>22.133333329999999</v>
+      </c>
+      <c r="S2">
+        <v>26.19166667</v>
+      </c>
+      <c r="T2">
+        <v>22</v>
+      </c>
+      <c r="U2">
+        <v>23.908333330000001</v>
+      </c>
+      <c r="V2">
+        <v>18.158333330000001</v>
+      </c>
+      <c r="W2">
+        <v>20.016666669999999</v>
+      </c>
+      <c r="X2">
+        <v>27.541666670000001</v>
+      </c>
+      <c r="Y2">
+        <v>23.516666669999999</v>
+      </c>
+      <c r="Z2">
+        <v>25.833333329999999</v>
+      </c>
+      <c r="AA2">
+        <v>22.94166667</v>
+      </c>
+      <c r="AB2">
+        <v>27.241666670000001</v>
+      </c>
+      <c r="AC2">
+        <v>24.475000000000001</v>
+      </c>
+      <c r="AD2">
+        <v>15.56666667</v>
+      </c>
+      <c r="AE2">
+        <v>22.783333330000001</v>
+      </c>
+      <c r="AF2">
+        <v>26.6</v>
+      </c>
+      <c r="AG2">
+        <v>17.7</v>
+      </c>
+      <c r="AH2">
+        <v>22.208333329999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3">
         <v>18.8</v>
-      </c>
-      <c r="D2">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>20.958333329999999</v>
       </c>
       <c r="C3">
         <v>19.899999999999999</v>
       </c>
       <c r="D3">
+        <v>23.7</v>
+      </c>
+      <c r="E3">
+        <v>27.7</v>
+      </c>
+      <c r="F3">
+        <v>22.4</v>
+      </c>
+      <c r="G3">
+        <v>27.4</v>
+      </c>
+      <c r="H3">
+        <v>25.6</v>
+      </c>
+      <c r="I3">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J3">
+        <v>18.8</v>
+      </c>
+      <c r="K3">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="L3">
+        <v>19.8</v>
+      </c>
+      <c r="M3">
+        <v>25.5</v>
+      </c>
+      <c r="N3">
+        <v>19.8</v>
+      </c>
+      <c r="O3">
+        <v>21.8</v>
+      </c>
+      <c r="P3">
+        <v>15.6</v>
+      </c>
+      <c r="Q3">
+        <v>21.2</v>
+      </c>
+      <c r="R3">
+        <v>22.4</v>
+      </c>
+      <c r="S3">
+        <v>26.5</v>
+      </c>
+      <c r="T3">
+        <v>22.6</v>
+      </c>
+      <c r="U3">
+        <v>24.2</v>
+      </c>
+      <c r="V3">
+        <v>19</v>
+      </c>
+      <c r="W3">
+        <v>20.9</v>
+      </c>
+      <c r="X3">
+        <v>28.1</v>
+      </c>
+      <c r="Y3">
+        <v>24.5</v>
+      </c>
+      <c r="Z3">
+        <v>25.8</v>
+      </c>
+      <c r="AA3">
+        <v>22.4</v>
+      </c>
+      <c r="AB3">
+        <v>27.6</v>
+      </c>
+      <c r="AC3">
+        <v>25.1</v>
+      </c>
+      <c r="AD3">
+        <v>15.8</v>
+      </c>
+      <c r="AE3">
+        <v>23.3</v>
+      </c>
+      <c r="AF3">
+        <v>27.3</v>
+      </c>
+      <c r="AG3">
+        <v>18.3</v>
+      </c>
+      <c r="AH3">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2020</v>
+      </c>
+      <c r="B4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C4">
         <v>20.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>24.25</v>
-      </c>
-      <c r="C4">
-        <v>23.7</v>
       </c>
       <c r="D4">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>27.141666669999999</v>
-      </c>
-      <c r="C5">
-        <v>27.7</v>
-      </c>
-      <c r="D5">
+      <c r="E4">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>21.824999999999999</v>
-      </c>
-      <c r="C6">
-        <v>22.4</v>
-      </c>
-      <c r="D6">
+      <c r="F4">
         <v>22.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>27.19166667</v>
-      </c>
-      <c r="C7">
-        <v>27.4</v>
-      </c>
-      <c r="D7">
+      <c r="G4">
         <v>27.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>25.141666669999999</v>
-      </c>
-      <c r="C8">
-        <v>25.6</v>
-      </c>
-      <c r="D8">
+      <c r="H4">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>19.19166667</v>
-      </c>
-      <c r="C9">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D9">
+      <c r="I4">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>17.8</v>
-      </c>
-      <c r="C10">
-        <v>18.8</v>
-      </c>
-      <c r="D10">
+      <c r="J4">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>18.958333329999999</v>
-      </c>
-      <c r="C11">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D11">
+      <c r="K4">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>19.083333329999999</v>
-      </c>
-      <c r="C12">
-        <v>19.8</v>
-      </c>
-      <c r="D12">
+      <c r="L4">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>25.19166667</v>
-      </c>
-      <c r="C13">
-        <v>25.5</v>
-      </c>
-      <c r="D13">
+      <c r="M4">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>18.666666670000001</v>
-      </c>
-      <c r="C14">
-        <v>19.8</v>
-      </c>
-      <c r="D14">
+      <c r="N4">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>21.158333330000001</v>
-      </c>
-      <c r="C15">
-        <v>21.8</v>
-      </c>
-      <c r="D15">
+      <c r="O4">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>14.95833333</v>
-      </c>
-      <c r="C16">
-        <v>15.6</v>
-      </c>
-      <c r="D16">
+      <c r="P4">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>20.841666669999999</v>
-      </c>
-      <c r="C17">
-        <v>21.2</v>
-      </c>
-      <c r="D17">
+      <c r="Q4">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>22.133333329999999</v>
-      </c>
-      <c r="C18">
-        <v>22.4</v>
-      </c>
-      <c r="D18">
+      <c r="R4">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>26.19166667</v>
-      </c>
-      <c r="C19">
-        <v>26.5</v>
-      </c>
-      <c r="D19">
+      <c r="S4">
         <v>26.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>22</v>
-      </c>
-      <c r="C20">
+      <c r="T4">
         <v>22.6</v>
       </c>
-      <c r="D20">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>23.908333330000001</v>
-      </c>
-      <c r="C21">
-        <v>24.2</v>
-      </c>
-      <c r="D21">
+      <c r="U4">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>18.158333330000001</v>
-      </c>
-      <c r="C22">
-        <v>19</v>
-      </c>
-      <c r="D22">
+      <c r="V4">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>20.016666669999999</v>
-      </c>
-      <c r="C23">
-        <v>20.9</v>
-      </c>
-      <c r="D23">
+      <c r="W4">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>27.541666670000001</v>
-      </c>
-      <c r="C24">
-        <v>28.1</v>
-      </c>
-      <c r="D24">
+      <c r="X4">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>23.516666669999999</v>
-      </c>
-      <c r="C25">
-        <v>24.5</v>
-      </c>
-      <c r="D25">
+      <c r="Y4">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>25.833333329999999</v>
-      </c>
-      <c r="C26">
-        <v>25.8</v>
-      </c>
-      <c r="D26">
+      <c r="Z4">
         <v>26.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>22.94166667</v>
-      </c>
-      <c r="C27">
-        <v>22.4</v>
-      </c>
-      <c r="D27">
+      <c r="AA4">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>27.241666670000001</v>
-      </c>
-      <c r="C28">
+      <c r="AB4">
         <v>27.6</v>
       </c>
-      <c r="D28">
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>24.475000000000001</v>
-      </c>
-      <c r="C29">
-        <v>25.1</v>
-      </c>
-      <c r="D29">
+      <c r="AC4">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>15.56666667</v>
-      </c>
-      <c r="C30">
-        <v>15.8</v>
-      </c>
-      <c r="D30">
+      <c r="AD4">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>22.783333330000001</v>
-      </c>
-      <c r="C31">
+      <c r="AE4">
         <v>23.3</v>
       </c>
-      <c r="D31">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>26.6</v>
-      </c>
-      <c r="C32">
+      <c r="AF4">
         <v>27.3</v>
       </c>
-      <c r="D32">
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>17.7</v>
-      </c>
-      <c r="C33">
+      <c r="AG4">
         <v>18.3</v>
       </c>
-      <c r="D33">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>22.208333329999999</v>
-      </c>
-      <c r="C34">
-        <v>22.4</v>
-      </c>
-      <c r="D34">
+      <c r="AH4">
         <v>22.4</v>
       </c>
     </row>
